--- a/biology/Zoologie/Jiaodontus/Jiaodontus.xlsx
+++ b/biology/Zoologie/Jiaodontus/Jiaodontus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jiaodontus est un genre éteint de poissons cartilagineux de l’ordre également éteint des Hybodontiformes. 
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Jiaodontus a été créé en 2010 par Stefanie Klug (d), Thomas Tütken (d), Oliver Wings (d), Hans-Ulrich Pfretzschner (d) et Thomas Martin (d) avec pour espèce type Jiaodontus montaltissimus[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Jiaodontus a été créé en 2010 par Stefanie Klug (d), Thomas Tütken (d), Oliver Wings (d), Hans-Ulrich Pfretzschner (d) et Thomas Martin (d) avec pour espèce type Jiaodontus montaltissimus,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les restes fossiles ont été mis au jour dans le Xinjiang, une province du Nord-Est de la Chine. Ces espèces vivaient lors de l’Oxfordien[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les restes fossiles ont été mis au jour dans le Xinjiang, une province du Nord-Est de la Chine. Ces espèces vivaient lors de l’Oxfordien.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (31 juillet 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (31 juillet 2022) :
 † Jiaodontus montaltissimus Klug et al., 2010 − espèce type
 † Jiaodontus vedenemus Klug et al., 2010</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Jiaodontus, dérive du chinois jiāo, « requin », et du grec ancien ὀδόντος, odóntos, « dent »[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Jiaodontus, dérive du chinois jiāo, « requin », et du grec ancien ὀδόντος, odóntos, « dent ».
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Stefanie Klug, Thomas Tütken, Oliver Wings, Hans-Ulrich Pfretzschner et Thomas Martin, « A Late Jurassic freshwater shark assemblage (Chondrichthyes, Hybodontiformes) from the southern Junggar Basin, Xinjiang, Northwest China », Palaeobiodiversity and Palaeoenvironments, Springer Nature (d) et Springer Science+Business Media, vol. 90, no 3,‎ 31 juillet 2010, p. 241-257 (ISSN 1867-1594 et 1867-1608, DOI 10.1007/S12549-010-0032-2, lire en ligne)</t>
         </is>
